--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB680.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB680.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A97ACCE-97B2-47C3-A43E-5F116FDBC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A39510-319B-4711-9729-5E9DD97EDBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <sheet name="暫存檔Work_B680、B680_F" sheetId="10" r:id="rId4"/>
     <sheet name="條件" sheetId="11" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$25</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -372,10 +369,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>A新增 C異動 D刪除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Filler9</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -641,6 +634,12 @@
   </si>
   <si>
     <t>WK."CustNo"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -981,6 +980,36 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -992,36 +1021,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1042,29 +1041,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="暫存檔Work_B092"/>
-      <sheetName val="條件"/>
-      <sheetName val="更新欄位"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1390,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1402,17 +1378,17 @@
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.44140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="32" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="53" style="38" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="53" style="34" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="22" t="s">
         <v>45</v>
       </c>
@@ -1422,13 +1398,13 @@
       <c r="E1" s="23"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1438,78 +1414,78 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="41"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="41"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="41"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1539,7 +1515,7 @@
       <c r="I8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="32" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1560,10 +1536,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="37" t="s">
-        <v>141</v>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1586,14 +1562,14 @@
       <c r="G10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="33">
+      <c r="H10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="29">
         <v>1</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>142</v>
+      <c r="J10" s="33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1616,17 +1592,17 @@
       <c r="G11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="29">
         <v>2</v>
       </c>
-      <c r="J11" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>4</v>
       </c>
@@ -1644,16 +1620,16 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="29">
         <v>3</v>
       </c>
-      <c r="J12" s="37" t="s">
-        <v>144</v>
+      <c r="J12" s="33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1676,14 +1652,14 @@
       <c r="G13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="29">
         <v>4</v>
       </c>
-      <c r="J13" s="37" t="s">
-        <v>149</v>
+      <c r="J13" s="33" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1706,14 +1682,14 @@
       <c r="G14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="29">
         <v>5</v>
       </c>
-      <c r="J14" s="37" t="s">
-        <v>145</v>
+      <c r="J14" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1721,27 +1697,27 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="9">
         <v>7</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="37" t="s">
-        <v>150</v>
+      <c r="H15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="33" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -1749,10 +1725,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>25</v>
@@ -1762,14 +1738,14 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="37" t="s">
-        <v>147</v>
+        <v>82</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="33" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -1777,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>25</v>
@@ -1790,14 +1766,14 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="37" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="33" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1820,14 +1796,14 @@
       <c r="G18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="29">
         <v>6</v>
       </c>
-      <c r="J18" s="37" t="s">
-        <v>145</v>
+      <c r="J18" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -1850,14 +1826,14 @@
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="29">
         <v>7</v>
       </c>
-      <c r="J19" s="37" t="s">
-        <v>146</v>
+      <c r="J19" s="33" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1880,20 +1856,20 @@
       <c r="G20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="29">
         <v>8</v>
       </c>
-      <c r="J20" s="37"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>39</v>
@@ -1908,14 +1884,14 @@
       <c r="G21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="29">
         <v>9</v>
       </c>
-      <c r="J21" s="38" t="s">
-        <v>145</v>
+      <c r="J21" s="34" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1936,9 +1912,9 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="38"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
@@ -1958,9 +1934,9 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="38"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
@@ -1980,9 +1956,9 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="38"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
@@ -2002,9 +1978,9 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="37"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
@@ -2065,22 +2041,22 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16"/>
-      <c r="J45" s="37"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
-      <c r="J46" s="37"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
-      <c r="J47" s="37"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
-      <c r="J48" s="37"/>
+      <c r="J48" s="33"/>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J49" s="37"/>
+      <c r="J49" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2190,283 +2166,283 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="41" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="136.109375" style="37" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="41" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="41" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="41" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="41" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="41" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="41" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="41" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="41" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="41" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="41" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="41" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="41" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="41" t="s">
-        <v>95</v>
+      <c r="A171" s="37" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="41" t="s">
-        <v>85</v>
+      <c r="A172" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2486,64 +2462,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="41" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="136.109375" style="37" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>85</v>
+      <c r="A12" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
